--- a/Catalogs/Nero_wolfe_embodiments.xlsx
+++ b/Catalogs/Nero_wolfe_embodiments.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Projects\Catalogs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0241512B-F463-4C5B-9CC8-466B11BA062B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12585"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +18,26 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$76</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="102">
   <si>
     <t>Fer De Lance</t>
   </si>
@@ -316,12 +334,21 @@
   </si>
   <si>
     <t>Death of Dude</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Audible</t>
+  </si>
+  <si>
+    <t>MP3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -405,20 +432,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,10 +489,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,6 +515,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -490,7 +566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,9 +599,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,6 +651,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -733,14 +843,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B76"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,1523 +859,1807 @@
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="6" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>1934</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>1935</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>1936</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>1937</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>1938</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>1939</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>1940</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>1940</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2">
         <v>1940</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="E12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2">
         <v>1941</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="E13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2">
         <v>1942</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="E14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2">
         <v>1942</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2">
         <v>1944</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>1945</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="2">
         <v>1946</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2">
         <v>1946</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2">
         <v>1947</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="2">
         <v>1947</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="E21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2">
         <v>1947</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B23" s="2">
         <v>1948</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="2">
         <v>1948</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="2">
         <v>1948</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="5"/>
+      <c r="E25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="2">
         <v>1949</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="E26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="2">
         <v>1949</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="E27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="2">
         <v>1949</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="3"/>
+      <c r="G28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="2">
         <v>1950</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="E29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="H29" s="4"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="2">
         <v>1950</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="3"/>
+      <c r="G30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="2">
         <v>1951</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="E31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="H31" s="4"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="2">
         <v>1951</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="E32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="2">
         <v>1951</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="2">
         <v>1952</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="E34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="2">
         <v>1952</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="E35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="2">
         <v>1952</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="2">
         <v>1953</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="E37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="2">
         <v>1953</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="E38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="2">
         <v>1953</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B40" s="2">
         <v>1954</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="E40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="H40" s="4"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="2">
         <v>1954</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="E41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="2">
         <v>1954</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="C42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="2">
         <v>1955</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="E43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="H43" s="4"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="2">
         <v>1955</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="C44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="E44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="2">
         <v>1955</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="2">
         <v>1956</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="H46" s="4"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="2">
         <v>1956</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="C47" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="E47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="2">
         <v>1956</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="C48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E48" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B49" s="2">
         <v>1957</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="C49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="F49" s="3"/>
+      <c r="G49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="2">
         <v>1957</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="C50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="E50" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="2">
         <v>1957</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="C51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="E51" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="2">
         <v>1957</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="C52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E52" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B53" s="2">
         <v>1958</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="C53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="E53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="2">
         <v>1958</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="C54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B55" s="2">
         <v>1959</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="C55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E55" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="2">
         <v>1960</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="E56" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B57" s="2">
         <v>1960</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="C57" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="2">
         <v>1960</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="C58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B59" s="2">
         <v>1960</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="C59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B60" s="2">
         <v>1961</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="C60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="E60" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="2">
         <v>1961</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="C61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="E61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="2">
         <v>1961</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="C62" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="E62" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="2">
         <v>1961</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="C63" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E63" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B64" s="2">
         <v>1962</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="C64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="H64" s="4"/>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="2">
         <v>1962</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="C65" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E65" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B66" s="2">
         <v>1963</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="C66" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="E66" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B67" s="2">
         <v>1963</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="C67" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E67" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="2">
         <v>1964</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="C68" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F68" s="5" t="s">
+      <c r="E68" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="H68" s="4"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="2">
         <v>1964</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="C69" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E69" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B70" s="2">
         <v>1965</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="C70" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E70" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B71" s="2">
         <v>1966</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D71" s="5" t="s">
+      <c r="C71" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B72" s="2">
         <v>1968</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="C72" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F72" s="5" t="s">
+      <c r="E72" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="4"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B73" s="2">
         <v>1969</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="C73" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E73" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B74" s="2">
         <v>1973</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="C74" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="4"/>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B75" s="2">
         <v>1975</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" s="5" t="s">
+      <c r="C75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="2">
         <v>1985</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="C76" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I76" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2273,7 +2667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2285,7 +2679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
